--- a/data_processed/20250729/BTCUSDVOLSURFACE_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDVOLSURFACE_20250729.xlsx
@@ -19104,7 +19104,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44642,7 +44642,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250729/BTCUSDVOLSURFACE_20250729.xlsx
+++ b/data_processed/20250729/BTCUSDVOLSURFACE_20250729.xlsx
@@ -19104,7 +19104,7 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44642,7 +44642,7 @@
       </c>
       <c r="G1681" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
